--- a/data/georgia_census/guria/lanchxuti/population_total.xlsx
+++ b/data/georgia_census/guria/lanchxuti/population_total.xlsx
@@ -1353,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39053D93-9685-412F-9195-85AA223E2149}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2D523E3-333C-4699-8C59-486025BC1557}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53D1DEEA-876C-41B7-9CE9-1F95ED455CDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F4C29-8918-417A-A679-71D47F6BBE7C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3291D504-B82A-4FCF-9D2C-E04C8165A1AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76CC4B44-0B2B-45DA-AF2B-058597EF8661}"/>
 </file>